--- a/RUDN/Importance/Varible_muatal_in_Northern Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Northern Africa.xlsx
@@ -130,18 +130,18 @@
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
     <t>Male population 60-64</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>Population ages 15-64, total</t>
   </si>
   <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
@@ -259,15 +259,15 @@
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
@@ -322,15 +322,15 @@
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
@@ -340,15 +340,15 @@
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Population, female</t>
   </si>
   <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -427,12 +427,12 @@
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -505,15 +505,15 @@
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
@@ -571,15 +571,15 @@
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
@@ -604,12 +604,12 @@
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
@@ -658,6 +658,9 @@
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
@@ -667,30 +670,27 @@
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+    <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
@@ -700,27 +700,27 @@
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
     <t>Malaria cases reported</t>
   </si>
   <si>
@@ -745,30 +745,30 @@
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
+    <t>Time required to start a business, male (days)</t>
   </si>
   <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
+    <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
@@ -838,24 +838,24 @@
     <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
@@ -880,24 +880,24 @@
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
@@ -961,21 +961,21 @@
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
     <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
@@ -988,6 +988,9 @@
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
@@ -997,9 +1000,6 @@
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
@@ -1015,24 +1015,24 @@
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
     <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
@@ -1063,12 +1063,12 @@
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
@@ -1081,40 +1081,43 @@
     <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Literacy rate, adult male (% of males ages 15 and above)</t>
   </si>
   <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
     <t>Ratio of young literate females to males (% ages 15-24)</t>
   </si>
   <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+    <t>Years</t>
   </si>
   <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
@@ -1123,75 +1126,72 @@
     <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
   </si>
   <si>
     <t>Employers, female (% of female employment)</t>
   </si>
   <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
     <t>People using safely managed sanitation services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
     <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
@@ -1210,22 +1210,22 @@
     <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
     <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
     <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
     <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
   </si>
   <si>
     <t>Reion_sub_code</t>
@@ -1909,7 +1909,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.29845931877147</v>
+        <v>1.297926658988091</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.297926658988091</v>
+        <v>1.291694157770618</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1925,7 +1925,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.291694157770618</v>
+        <v>1.291527728829712</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1933,7 +1933,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.291527728829712</v>
+        <v>1.289523744541778</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1965,7 +1965,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.282517549188396</v>
+        <v>1.281877054877627</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1973,7 +1973,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.281877054877627</v>
+        <v>1.279739771410618</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2053,7 +2053,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.261083036046452</v>
+        <v>1.260218902110699</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.260218902110699</v>
+        <v>1.259984134947551</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.234592815539088</v>
+        <v>1.234558801933646</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2141,7 +2141,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.233578948453793</v>
+        <v>1.234344716299393</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.192286836344565</v>
+        <v>1.189532382046127</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.189532382046127</v>
+        <v>1.188800043940064</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.188800043940064</v>
+        <v>1.185518128861571</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.149079460683527</v>
+        <v>1.148602754849678</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.128226474638918</v>
+        <v>1.120284252948406</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.120284252948406</v>
+        <v>1.114747871991439</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2437,7 +2437,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.114747871991439</v>
+        <v>1.112820168759923</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.102062793411446</v>
+        <v>1.104165722132787</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.098936301939639</v>
+        <v>1.102062793411446</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.098137556293259</v>
+        <v>1.098936301939639</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.048263307782115</v>
+        <v>1.047469656988465</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2909,7 +2909,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.88730522821535</v>
+        <v>0.8855456400819008</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2917,7 +2917,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.8863908266413727</v>
+        <v>0.8809570643520368</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.8809570643520368</v>
+        <v>0.8804628245872317</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2933,7 +2933,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.871717613320546</v>
+        <v>0.8704310494372332</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.8680071963726379</v>
+        <v>0.866785025686182</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.8332368967456194</v>
+        <v>0.8314511824599053</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.8053626099788358</v>
+        <v>0.8033465028115971</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.8033465028115971</v>
+        <v>0.80205743210445</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.80205743210445</v>
+        <v>0.7982521930570565</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.7728165942605776</v>
+        <v>0.7680717050768335</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3197,7 +3197,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.728321472598753</v>
+        <v>0.730573917804721</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3213,7 +3213,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.7184977389106466</v>
+        <v>0.7223242695228911</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.6486293048931928</v>
+        <v>0.6486114365826421</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.6225106932285982</v>
+        <v>0.6272595867111579</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3325,7 +3325,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.6167873613177068</v>
+        <v>0.6225106932285982</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3333,7 +3333,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.6129138700057788</v>
+        <v>0.6167873613177068</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.6096863074558514</v>
+        <v>0.6129138700057788</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3349,7 +3349,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.5999358379724162</v>
+        <v>0.5879004126239575</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3357,7 +3357,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.5918187899982166</v>
+        <v>0.5869390462875987</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.5623675707438711</v>
+        <v>0.566173390996024</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.5526725342341985</v>
+        <v>0.5623675707438711</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.5479469223936158</v>
+        <v>0.5578713367754755</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.546588873615927</v>
+        <v>0.5553291941868559</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.5151055557613051</v>
+        <v>0.5243283270724222</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.4767294050337725</v>
+        <v>0.4758825556096959</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.4758825556096959</v>
+        <v>0.4741307952702112</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.4741307952702112</v>
+        <v>0.4726102879539442</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.4722531450968015</v>
+        <v>0.4717918869593891</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.4717918869593891</v>
+        <v>0.4708394936330051</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.4708394936330051</v>
+        <v>0.4662405891761541</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.4326466989488817</v>
+        <v>0.4301026108092951</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3549,7 +3549,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.4063316404438799</v>
+        <v>0.4034101306889115</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3557,7 +3557,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.4050877021751933</v>
+        <v>0.402240116458606</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.4038624710055534</v>
+        <v>0.402024996885471</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.4034101306889115</v>
+        <v>0.3980323207159882</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.3919037250267945</v>
+        <v>0.3946186258283564</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.3916366555090656</v>
+        <v>0.3919037250267945</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.3902786605111028</v>
+        <v>0.389909610093278</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.3865365942202619</v>
+        <v>0.3869191621663102</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.3371977168598013</v>
+        <v>0.3369657266278112</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.3282511120741396</v>
+        <v>0.3296401213032545</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.3274291320350318</v>
+        <v>0.3282511120741396</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.3258073139028801</v>
+        <v>0.3274291320350318</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.3251678574257366</v>
+        <v>0.3258073139028801</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.3248731083322329</v>
+        <v>0.3248205873238297</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3901,7 +3901,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.3203496910963859</v>
+        <v>0.3176468735884057</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3909,7 +3909,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.3130403568891096</v>
+        <v>0.3141072714908815</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3917,7 +3917,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.3077518477640773</v>
+        <v>0.3130403568891096</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3925,7 +3925,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.3053816608433693</v>
+        <v>0.3077518477640773</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3933,7 +3933,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.3043969495300507</v>
+        <v>0.3072615376943955</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3941,7 +3941,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.3042618812872979</v>
+        <v>0.3053816608433693</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3949,7 +3949,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.3035209482681276</v>
+        <v>0.3043969495300507</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.2798533555244418</v>
+        <v>0.2797734505465777</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2783322136883637</v>
+        <v>0.2776179279740778</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4061,7 +4061,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.2563103635613886</v>
+        <v>0.2554037701547953</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4093,7 +4093,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.2432843889125038</v>
+        <v>0.244383290011404</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4101,7 +4101,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.2373292382360557</v>
+        <v>0.2402487393698425</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4109,7 +4109,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.2314458264118706</v>
+        <v>0.2317055666716115</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4117,7 +4117,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.2303480847502533</v>
+        <v>0.2308888244983098</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4125,7 +4125,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.2301802713123275</v>
+        <v>0.2280874851698058</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4133,7 +4133,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.2280874851698058</v>
+        <v>0.224643585438584</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4141,7 +4141,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.224643585438584</v>
+        <v>0.2234814620151331</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4149,7 +4149,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.2188356900448478</v>
+        <v>0.2225520630776523</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4157,7 +4157,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.2183665224419011</v>
+        <v>0.2188356900448478</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4197,7 +4197,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.204922497817269</v>
+        <v>0.2050744855576336</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4205,7 +4205,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.2033125049579774</v>
+        <v>0.204922497817269</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4221,7 +4221,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.2026935331766817</v>
+        <v>0.2033125049579774</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4373,7 +4373,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.1516098272381181</v>
+        <v>0.151404744363925</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4381,7 +4381,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.1503856956786214</v>
+        <v>0.1501217320000228</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4397,7 +4397,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.1432200019536773</v>
+        <v>0.1450992260003017</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4405,7 +4405,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.1431426189418956</v>
+        <v>0.1432200019536773</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4445,7 +4445,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1093614986675895</v>
+        <v>0.1039385759646609</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4453,7 +4453,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.1060409159110425</v>
+        <v>0.1021523155724939</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4461,7 +4461,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.1039385759646609</v>
+        <v>0.1021122444208569</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4469,7 +4469,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.1021122444208569</v>
+        <v>0.1017766845508545</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4541,7 +4541,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.0745110587702853</v>
+        <v>0.0772631709175835</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4549,7 +4549,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.07310285331723332</v>
+        <v>0.0745110587702853</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4557,7 +4557,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.05011207460595979</v>
+        <v>0.07310285331723332</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4645,7 +4645,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.04807455546404116</v>
+        <v>0.05011207460595979</v>
       </c>
     </row>
     <row r="383" spans="1:2">
